--- a/LuckyGirls组进度表.xlsx
+++ b/LuckyGirls组进度表.xlsx
@@ -140,14 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问诊信息里的医嘱和缴费选项卡相应的页面,实现了对数据的增加，校验，统计价钱的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约的详情页面,完成页面的排版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排班模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,14 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成项目模块以及各子模块的增删改功能，但真正分页功能未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄春飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,19 +164,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开始做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导航条、注册、登录、首页、个人信息、修改密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导航条、注册、登录基本功能差不多完成，密码的校验未完成，路由钩子有点问题导致模块之间的跳转有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成排班的增删功能</t>
+    <t>完成该页面医嘱选项卡的增删改功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成该模块的会员账号小模块的账户充值功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册、登录基本功能完成,导航条部分功能实现，路由的搭建修改完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成排班的编辑功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约时间和预约医生的对话框，修改之前做的页面的样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,27 +356,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -385,6 +364,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -707,109 +708,109 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="B8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
@@ -830,14 +831,14 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
@@ -861,7 +862,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
@@ -874,12 +875,12 @@
         <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
@@ -892,12 +893,12 @@
         <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -910,12 +911,12 @@
         <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -928,12 +929,12 @@
         <v>19</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>24</v>
@@ -941,27 +942,29 @@
       <c r="C18" s="3">
         <v>42953</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="26">
+        <v>42950</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3">
         <v>42957</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>44</v>
@@ -978,40 +981,40 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="2"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="2"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="2"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="2"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
@@ -1123,84 +1126,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="B5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="B6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
@@ -1221,14 +1224,14 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
